--- a/data/survey_data.xlsx
+++ b/data/survey_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aminaddetia/Documents/TFCB/tfcb-homework02/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A71567-BA1F-284E-8955-F1ECD88316D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D378FE-D012-3149-B5A5-82A3A872D3BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="1400" windowWidth="25120" windowHeight="15580" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -117,7 +117,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,7 +509,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -553,7 +553,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -578,7 +578,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1608,6 +1608,9 @@
       <c r="C45" s="1">
         <v>28498</v>
       </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
       <c r="E45" t="s">
         <v>3</v>
       </c>
@@ -1628,6 +1631,9 @@
       <c r="C46" s="1">
         <v>28498</v>
       </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
       <c r="E46" t="s">
         <v>1</v>
       </c>
@@ -1648,6 +1654,9 @@
       <c r="C47" s="1">
         <v>28498</v>
       </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
       <c r="E47" t="s">
         <v>3</v>
       </c>
@@ -1668,6 +1677,9 @@
       <c r="C48" s="1">
         <v>28498</v>
       </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
       <c r="E48" t="s">
         <v>1</v>
       </c>
@@ -1687,6 +1699,9 @@
       </c>
       <c r="C49" s="1">
         <v>28498</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
       </c>
       <c r="E49" t="s">
         <v>1</v>
